--- a/Scripts/config_Raspi3B.xlsx
+++ b/Scripts/config_Raspi3B.xlsx
@@ -146,7 +146,7 @@
     <t>test_label</t>
   </si>
   <si>
-    <t>Aud1</t>
+    <t>TFObj1</t>
   </si>
   <si>
     <r>
@@ -204,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,12 +235,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -341,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,17 +385,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,12 +714,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="78.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="42.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="78.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="62.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="26.25" customFormat="1" s="1">
@@ -936,10 +924,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="16">
-        <v>1.14</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -950,10 +938,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -961,7 +949,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -969,7 +957,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -977,7 +965,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -985,7 +973,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="16"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -993,7 +981,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1001,7 +989,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="16"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1009,7 +997,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="16"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1017,7 +1005,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="16"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1025,7 +1013,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="16"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1033,7 +1021,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="16"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1041,7 +1029,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="16"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1049,7 +1037,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="16"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1057,7 +1045,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="16"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1065,7 +1053,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="16"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1073,7 +1061,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="16"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1081,7 +1069,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="16"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1089,7 +1077,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="16"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1097,7 +1085,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="16"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1105,7 +1093,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="16"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1113,7 +1101,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="16"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1121,7 +1109,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="16"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1129,7 +1117,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="16"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1137,7 +1125,7 @@
       <c r="B38" s="4"/>
       <c r="C38" s="16"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1145,7 +1133,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="16"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1153,7 +1141,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="16"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1161,7 +1149,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="16"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1169,7 +1157,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="16"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1177,7 +1165,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="16"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1185,7 +1173,7 @@
       <c r="B44" s="4"/>
       <c r="C44" s="16"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1193,7 +1181,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="16"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1201,7 +1189,7 @@
       <c r="B46" s="4"/>
       <c r="C46" s="16"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1209,7 +1197,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="16"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1217,7 +1205,7 @@
       <c r="B48" s="4"/>
       <c r="C48" s="16"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1225,7 +1213,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="16"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="17"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1233,7 +1221,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="16"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1241,7 +1229,7 @@
       <c r="B51" s="4"/>
       <c r="C51" s="16"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1249,7 +1237,7 @@
       <c r="B52" s="4"/>
       <c r="C52" s="16"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1257,7 +1245,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="16"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="17"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1265,7 +1253,7 @@
       <c r="B54" s="4"/>
       <c r="C54" s="16"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1273,7 +1261,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="16"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1281,7 +1269,7 @@
       <c r="B56" s="4"/>
       <c r="C56" s="16"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1289,7 +1277,7 @@
       <c r="B57" s="4"/>
       <c r="C57" s="16"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1297,7 +1285,7 @@
       <c r="B58" s="4"/>
       <c r="C58" s="16"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1305,7 +1293,7 @@
       <c r="B59" s="4"/>
       <c r="C59" s="16"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1313,7 +1301,7 @@
       <c r="B60" s="4"/>
       <c r="C60" s="16"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1321,7 +1309,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="16"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1329,7 +1317,7 @@
       <c r="B62" s="4"/>
       <c r="C62" s="16"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1337,7 +1325,7 @@
       <c r="B63" s="4"/>
       <c r="C63" s="16"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1345,7 +1333,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="16"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1353,7 +1341,7 @@
       <c r="B65" s="4"/>
       <c r="C65" s="16"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="17"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1361,7 +1349,7 @@
       <c r="B66" s="4"/>
       <c r="C66" s="16"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1369,7 +1357,7 @@
       <c r="B67" s="4"/>
       <c r="C67" s="16"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1377,7 +1365,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="16"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1385,7 +1373,7 @@
       <c r="B69" s="4"/>
       <c r="C69" s="16"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1393,7 +1381,7 @@
       <c r="B70" s="4"/>
       <c r="C70" s="16"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1401,7 +1389,7 @@
       <c r="B71" s="4"/>
       <c r="C71" s="16"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="17"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1409,7 +1397,7 @@
       <c r="B72" s="4"/>
       <c r="C72" s="16"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
   </sheetData>
